--- a/waivers/output/results_test.xlsx
+++ b/waivers/output/results_test.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Free\Desktop\td-parking\waivers\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{32F649B5-2B53-41A3-9781-8314DABCCFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ED1BE7-AC55-42A1-A1B7-811469CCE896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_test" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
   <si>
     <t>filename</t>
   </si>
@@ -122,12 +122,60 @@
   </si>
   <si>
     <t>accessory parking for 10 vehicles</t>
+  </si>
+  <si>
+    <t>bike storage room</t>
+  </si>
+  <si>
+    <t>tenant bike room</t>
+  </si>
+  <si>
+    <t>accessory attended parking for (28) cars</t>
+  </si>
+  <si>
+    <t>open bike racks</t>
+  </si>
+  <si>
+    <t>bicycle storage room</t>
+  </si>
+  <si>
+    <t>accessory bike storage</t>
+  </si>
+  <si>
+    <t>accessory tenant parking for 7 vehicles</t>
+  </si>
+  <si>
+    <t>accessory parking for 12 cars</t>
+  </si>
+  <si>
+    <t>47 attendant accessory parking spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bicycle storage </t>
+  </si>
+  <si>
+    <t>accessory bike storage -16 bicycles</t>
+  </si>
+  <si>
+    <t>bicycle room</t>
+  </si>
+  <si>
+    <t>D. … accessory parking for 32 cars</t>
+  </si>
+  <si>
+    <t>32?</t>
+  </si>
+  <si>
+    <t>accessory attended off street parking for (8) cars in conjunction with cellar/subcellar, bicycle storage (58 bicycles)</t>
+  </si>
+  <si>
+    <t>four (4) accessory parking spaces, four (4) accessory parking spaces</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -964,11 +1012,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,6 +3027,9 @@
       <c r="K55">
         <v>22</v>
       </c>
+      <c r="P55" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -3010,6 +3062,9 @@
       <c r="K56">
         <v>133</v>
       </c>
+      <c r="P56" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -3074,6 +3129,12 @@
       <c r="K58">
         <v>56</v>
       </c>
+      <c r="O58">
+        <v>28</v>
+      </c>
+      <c r="P58" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -3106,6 +3167,9 @@
       <c r="K59">
         <v>263</v>
       </c>
+      <c r="P59" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -3202,6 +3266,9 @@
       <c r="K62">
         <v>33</v>
       </c>
+      <c r="P62" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -3267,7 +3334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1018337506</v>
       </c>
@@ -3298,8 +3365,11 @@
       <c r="K65">
         <v>132</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1006957507</v>
       </c>
@@ -3330,8 +3400,11 @@
       <c r="K66">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1002197505</v>
       </c>
@@ -3368,8 +3441,14 @@
       <c r="M67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>7</v>
+      </c>
+      <c r="P67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1002767503</v>
       </c>
@@ -3406,8 +3485,11 @@
       <c r="M68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1019167501</v>
       </c>
@@ -3439,7 +3521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1008330040</v>
       </c>
@@ -3471,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1005867502</v>
       </c>
@@ -3503,7 +3585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1003537503</v>
       </c>
@@ -3526,7 +3608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1008947504</v>
       </c>
@@ -3558,7 +3640,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1015157504</v>
       </c>
@@ -3590,7 +3672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1018487503</v>
       </c>
@@ -3621,8 +3703,14 @@
       <c r="K75">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>47</v>
+      </c>
+      <c r="P75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1021807504</v>
       </c>
@@ -3654,7 +3742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1006967502</v>
       </c>
@@ -3686,7 +3774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1017720009</v>
       </c>
@@ -3718,7 +3806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1019557502</v>
       </c>
@@ -3750,7 +3838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1005957505</v>
       </c>
@@ -3782,7 +3870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1005077502</v>
       </c>
@@ -3813,8 +3901,11 @@
       <c r="K81">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1001907508</v>
       </c>
@@ -3837,7 +3928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1002837503</v>
       </c>
@@ -3869,7 +3960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1018070015</v>
       </c>
@@ -3901,7 +3992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1020067501</v>
       </c>
@@ -3933,7 +4024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1016317501</v>
       </c>
@@ -3965,7 +4056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1020627501</v>
       </c>
@@ -3997,7 +4088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1017160051</v>
       </c>
@@ -4029,7 +4120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1004150010</v>
       </c>
@@ -4061,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1017090015</v>
       </c>
@@ -4098,8 +4189,14 @@
       <c r="M90">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <v>8</v>
+      </c>
+      <c r="P90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1020457505</v>
       </c>
@@ -4131,7 +4228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1019537503</v>
       </c>
@@ -4163,7 +4260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1013447503</v>
       </c>
@@ -4200,8 +4297,14 @@
       <c r="M93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>8</v>
+      </c>
+      <c r="P93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1019270061</v>
       </c>
@@ -4232,8 +4335,11 @@
       <c r="K94">
         <v>41</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1000900017</v>
       </c>
@@ -4264,8 +4370,11 @@
       <c r="K95">
         <v>168</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1005947510</v>
       </c>
@@ -4296,8 +4405,11 @@
       <c r="K96">
         <v>31</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1003787501</v>
       </c>
@@ -4328,8 +4440,11 @@
       <c r="K97">
         <v>30</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1004067503</v>
       </c>
@@ -4361,7 +4476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1007367501</v>
       </c>
@@ -4398,8 +4513,14 @@
       <c r="M99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O99" t="s">
+        <v>46</v>
+      </c>
+      <c r="P99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1008610004</v>
       </c>
@@ -4431,7 +4552,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1005267502</v>
       </c>
@@ -4463,7 +4584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1006957510</v>
       </c>

--- a/waivers/output/results_test.xlsx
+++ b/waivers/output/results_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M_Free\Desktop\td-parking\waivers\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ED1BE7-AC55-42A1-A1B7-811469CCE896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9AD51A-C9E4-4493-A3EF-453198A1E8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="54">
   <si>
     <t>filename</t>
   </si>
@@ -88,9 +88,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>url not working…</t>
-  </si>
-  <si>
     <t xml:space="preserve">D. </t>
   </si>
   <si>
@@ -170,13 +167,31 @@
   </si>
   <si>
     <t>four (4) accessory parking spaces, four (4) accessory parking spaces</t>
+  </si>
+  <si>
+    <t>multiple cos</t>
+  </si>
+  <si>
+    <t>new pattern</t>
+  </si>
+  <si>
+    <t>multiple patterns</t>
+  </si>
+  <si>
+    <t>public parking</t>
+  </si>
+  <si>
+    <t>multiple instances</t>
+  </si>
+  <si>
+    <t>manual download</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,8 +326,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +514,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -653,11 +693,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1013,11 +1058,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P91" sqref="P91"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,10 +1080,11 @@
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="130" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="130" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1055,12 +1101,12 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1097,14 +1143,14 @@
       <c r="M2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1006370051</v>
       </c>
@@ -1135,131 +1181,138 @@
       <c r="K3">
         <v>6</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1007600068</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1013606</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>104626031</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>2010</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>207</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>207</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2">
         <v>1013606</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>1013606</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>207</v>
       </c>
-      <c r="L4">
-        <v>12</v>
-      </c>
-      <c r="M4">
+      <c r="L4" s="2">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2">
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="2">
         <v>83</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1008057502</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1015146</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>104731300</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2010</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>302</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>302</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2">
         <v>1015146</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>1015146</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>302</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1012607502</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1034238</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>104579038</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>2010</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>53</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>53</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2">
         <v>1034238</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>1034238</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>53</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1013227502</v>
       </c>
@@ -1290,11 +1343,11 @@
       <c r="K7">
         <v>76</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1013697502</v>
       </c>
@@ -1325,11 +1378,11 @@
       <c r="K8">
         <v>6</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1015297501</v>
       </c>
@@ -1360,40 +1413,38 @@
       <c r="K9">
         <v>3</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>1016077503</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>1051489</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>104631150</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>2012</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>229</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>229</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="Q10" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1016447502</v>
       </c>
@@ -1424,11 +1475,11 @@
       <c r="K11">
         <v>19</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1016600024</v>
       </c>
@@ -1459,11 +1510,11 @@
       <c r="K12">
         <v>16</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1016837502</v>
       </c>
@@ -1494,11 +1545,11 @@
       <c r="K13">
         <v>21</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1017860045</v>
       </c>
@@ -1535,14 +1586,14 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1</v>
       </c>
-      <c r="P14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1019130038</v>
       </c>
@@ -1573,11 +1624,11 @@
       <c r="K15">
         <v>13</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1019160154</v>
       </c>
@@ -1608,11 +1659,11 @@
       <c r="K16">
         <v>2</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1019530030</v>
       </c>
@@ -1643,11 +1694,11 @@
       <c r="K17">
         <v>8</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1020117501</v>
       </c>
@@ -1678,11 +1729,11 @@
       <c r="K18">
         <v>10</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1020650022</v>
       </c>
@@ -1713,49 +1764,50 @@
       <c r="K19">
         <v>16</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>1021550026</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>1063701</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>104551414</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>2015</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>16</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>36</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20">
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="2">
         <v>1063701</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>1063701</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>36</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="3"/>
+      <c r="P20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1016617503</v>
       </c>
@@ -1786,11 +1838,11 @@
       <c r="K21">
         <v>12</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1015447502</v>
       </c>
@@ -1821,11 +1873,11 @@
       <c r="K22">
         <v>7</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1016817503</v>
       </c>
@@ -1856,11 +1908,11 @@
       <c r="K23">
         <v>35</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1005090019</v>
       </c>
@@ -1891,11 +1943,11 @@
       <c r="K24">
         <v>9</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1002847504</v>
       </c>
@@ -1926,11 +1978,11 @@
       <c r="K25">
         <v>20</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1017360001</v>
       </c>
@@ -1953,45 +2005,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>1001060002</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>1086078</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>103935191</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>2010</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>3</v>
       </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27">
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="2">
         <v>1086078</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
         <v>1086078</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="2">
         <v>3</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="2">
         <v>1</v>
       </c>
-      <c r="P27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1016390027</v>
       </c>
@@ -2028,52 +2083,52 @@
       <c r="M28">
         <v>16</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>4</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>1001007502</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1087485</v>
+      </c>
+      <c r="C29" s="5">
+        <v>104293774</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2011</v>
+      </c>
+      <c r="E29" s="5">
+        <v>898</v>
+      </c>
+      <c r="F29" s="5">
+        <v>898</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1087485</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1087485</v>
+      </c>
+      <c r="K29" s="5">
+        <v>898</v>
+      </c>
+      <c r="P29" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1001007502</v>
-      </c>
-      <c r="B29">
-        <v>1087485</v>
-      </c>
-      <c r="C29">
-        <v>104293774</v>
-      </c>
-      <c r="D29">
-        <v>2011</v>
-      </c>
-      <c r="E29">
-        <v>898</v>
-      </c>
-      <c r="F29">
-        <v>898</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29">
-        <v>1087485</v>
-      </c>
-      <c r="J29">
-        <v>1087485</v>
-      </c>
-      <c r="K29">
-        <v>898</v>
-      </c>
-      <c r="O29">
-        <v>100</v>
-      </c>
-      <c r="P29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1004207501</v>
       </c>
@@ -2110,11 +2165,11 @@
       <c r="M30">
         <v>7</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1004380018</v>
       </c>
@@ -2145,11 +2200,11 @@
       <c r="K31">
         <v>11</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1006940039</v>
       </c>
@@ -2180,14 +2235,14 @@
       <c r="K32">
         <v>111</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0</v>
       </c>
-      <c r="P32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1015540023</v>
       </c>
@@ -2218,11 +2273,11 @@
       <c r="K33">
         <v>105</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1019537502</v>
       </c>
@@ -2253,11 +2308,11 @@
       <c r="K34">
         <v>11</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1019320033</v>
       </c>
@@ -2294,14 +2349,14 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>15</v>
       </c>
-      <c r="P35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1010637502</v>
       </c>
@@ -2338,14 +2393,14 @@
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>30</v>
       </c>
-      <c r="P36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1020077502</v>
       </c>
@@ -2376,11 +2431,11 @@
       <c r="K37">
         <v>17</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1009397501</v>
       </c>
@@ -2411,14 +2466,14 @@
       <c r="K38">
         <v>130</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0</v>
       </c>
-      <c r="P38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1004710015</v>
       </c>
@@ -2449,11 +2504,11 @@
       <c r="K39">
         <v>5</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1003847505</v>
       </c>
@@ -2484,11 +2539,11 @@
       <c r="K40">
         <v>5</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1018307502</v>
       </c>
@@ -2525,52 +2580,53 @@
       <c r="M41">
         <v>16</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>13</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>1001497502</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1087951</v>
+      </c>
+      <c r="C42" s="2">
+        <v>104409766</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E42" s="2">
+        <v>84</v>
+      </c>
+      <c r="F42" s="2">
+        <v>84</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1087951</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1087951</v>
+      </c>
+      <c r="K42" s="2">
+        <v>84</v>
+      </c>
+      <c r="O42" s="3"/>
+      <c r="P42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1001497502</v>
-      </c>
-      <c r="B42">
-        <v>1087951</v>
-      </c>
-      <c r="C42">
-        <v>104409766</v>
-      </c>
-      <c r="D42">
-        <v>2011</v>
-      </c>
-      <c r="E42">
-        <v>84</v>
-      </c>
-      <c r="F42">
-        <v>84</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42">
-        <v>1087951</v>
-      </c>
-      <c r="J42">
-        <v>1087951</v>
-      </c>
-      <c r="K42">
-        <v>84</v>
-      </c>
-      <c r="O42" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1018250043</v>
       </c>
@@ -2601,40 +2657,43 @@
       <c r="K43">
         <v>21</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>1006417503</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>1087979</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>104603216</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>2010</v>
       </c>
-      <c r="E44">
-        <v>12</v>
-      </c>
-      <c r="F44">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="E44" s="2">
+        <v>12</v>
+      </c>
+      <c r="F44" s="2">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1007467507</v>
       </c>
@@ -2665,14 +2724,14 @@
       <c r="K45">
         <v>14</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>0</v>
       </c>
-      <c r="P45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1022380014</v>
       </c>
@@ -2703,11 +2762,11 @@
       <c r="K46">
         <v>22</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1019280005</v>
       </c>
@@ -2738,11 +2797,11 @@
       <c r="K47">
         <v>6</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1018487504</v>
       </c>
@@ -2773,11 +2832,11 @@
       <c r="K48">
         <v>4</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1018337507</v>
       </c>
@@ -2808,11 +2867,11 @@
       <c r="K49">
         <v>63</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1018287506</v>
       </c>
@@ -2843,11 +2902,11 @@
       <c r="K50">
         <v>36</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1016767505</v>
       </c>
@@ -2878,11 +2937,11 @@
       <c r="K51">
         <v>8</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1016447501</v>
       </c>
@@ -2913,11 +2972,11 @@
       <c r="K52">
         <v>22</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1016440041</v>
       </c>
@@ -2948,11 +3007,11 @@
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1016330020</v>
       </c>
@@ -2989,14 +3048,14 @@
       <c r="M54">
         <v>4</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>10</v>
       </c>
-      <c r="P54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1007167505</v>
       </c>
@@ -3027,11 +3086,11 @@
       <c r="K55">
         <v>22</v>
       </c>
-      <c r="P55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1005440065</v>
       </c>
@@ -3062,11 +3121,11 @@
       <c r="K56">
         <v>133</v>
       </c>
-      <c r="P56" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1000537502</v>
       </c>
@@ -3098,45 +3157,45 @@
         <v>440</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>1018337505</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>1088481</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="4">
         <v>104714677</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="4">
         <v>2010</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <v>56</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="4">
         <v>56</v>
       </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58">
+      <c r="G58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="4">
         <v>1088481</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="4">
         <v>1812106</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="4">
         <v>56</v>
       </c>
-      <c r="O58">
+      <c r="P58" s="4">
         <v>28</v>
       </c>
-      <c r="P58" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1003450058</v>
       </c>
@@ -3167,11 +3226,11 @@
       <c r="K59">
         <v>263</v>
       </c>
-      <c r="P59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1001070028</v>
       </c>
@@ -3203,7 +3262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1005777504</v>
       </c>
@@ -3235,7 +3294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1011697502</v>
       </c>
@@ -3266,11 +3325,11 @@
       <c r="K62">
         <v>33</v>
       </c>
-      <c r="P62" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1017857502</v>
       </c>
@@ -3302,7 +3361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1008810060</v>
       </c>
@@ -3334,7 +3393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1018337506</v>
       </c>
@@ -3365,11 +3424,11 @@
       <c r="K65">
         <v>132</v>
       </c>
-      <c r="P65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1006957507</v>
       </c>
@@ -3400,11 +3459,11 @@
       <c r="K66">
         <v>11</v>
       </c>
-      <c r="P66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1002197505</v>
       </c>
@@ -3441,14 +3500,14 @@
       <c r="M67">
         <v>4</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>7</v>
       </c>
-      <c r="P67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1002767503</v>
       </c>
@@ -3485,11 +3544,11 @@
       <c r="M68">
         <v>2</v>
       </c>
-      <c r="P68" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1019167501</v>
       </c>
@@ -3521,7 +3580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1008330040</v>
       </c>
@@ -3553,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1005867502</v>
       </c>
@@ -3585,30 +3644,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
         <v>1003537503</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>1088708</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <v>104403511</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <v>2011</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>24</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <v>24</v>
       </c>
-      <c r="G72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1008947504</v>
       </c>
@@ -3640,7 +3700,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1015157504</v>
       </c>
@@ -3672,45 +3732,48 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>1018487503</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>1088733</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>104585325</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="2">
         <v>2010</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>73</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <v>73</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75">
+      <c r="G75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="2">
         <v>1088733</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="2">
         <v>1087812</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="2">
         <v>73</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P75" s="2">
         <v>47</v>
       </c>
-      <c r="P75" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1021807504</v>
       </c>
@@ -3742,7 +3805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1006967502</v>
       </c>
@@ -3774,7 +3837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1017720009</v>
       </c>
@@ -3806,7 +3869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1019557502</v>
       </c>
@@ -3838,7 +3901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1005957505</v>
       </c>
@@ -3870,7 +3933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1005077502</v>
       </c>
@@ -3901,34 +3964,35 @@
       <c r="K81">
         <v>24</v>
       </c>
-      <c r="P81" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="Q81" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>1001907508</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>1088918</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>104631837</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <v>2012</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <v>6</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <v>6</v>
       </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1002837503</v>
       </c>
@@ -3960,7 +4024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1018070015</v>
       </c>
@@ -3992,7 +4056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1020067501</v>
       </c>
@@ -4024,7 +4088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1016317501</v>
       </c>
@@ -4056,7 +4120,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1020627501</v>
       </c>
@@ -4088,7 +4152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1017160051</v>
       </c>
@@ -4120,7 +4184,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1004150010</v>
       </c>
@@ -4152,51 +4216,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>1017090015</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>1089523</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>104160916</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="2">
         <v>2019</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="2">
         <v>13</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="2">
         <v>13</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90">
+      <c r="G90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="2">
         <v>1089523</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="2">
         <v>1089523</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="2">
         <v>13</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="2">
         <v>4</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="2">
         <v>7</v>
       </c>
-      <c r="O90">
+      <c r="O90" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90" s="2">
         <v>8</v>
       </c>
-      <c r="P90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1020457505</v>
       </c>
@@ -4228,7 +4295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1019537503</v>
       </c>
@@ -4260,51 +4327,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
         <v>1013447503</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>1089775</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <v>104560235</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2">
         <v>2015</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>123</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>123</v>
       </c>
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93">
+      <c r="G93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="2">
         <v>1089775</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="2">
         <v>1039675</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="2">
         <v>123</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="2">
         <v>8</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="2">
         <v>1</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="3"/>
+      <c r="P93" s="2">
         <v>8</v>
       </c>
-      <c r="P93" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1019270061</v>
       </c>
@@ -4335,11 +4403,11 @@
       <c r="K94">
         <v>41</v>
       </c>
-      <c r="P94" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1000900017</v>
       </c>
@@ -4370,11 +4438,11 @@
       <c r="K95">
         <v>168</v>
       </c>
-      <c r="P95" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1005947510</v>
       </c>
@@ -4405,11 +4473,11 @@
       <c r="K96">
         <v>31</v>
       </c>
-      <c r="P96" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1003787501</v>
       </c>
@@ -4440,87 +4508,89 @@
       <c r="K97">
         <v>30</v>
       </c>
-      <c r="P97" t="s">
+      <c r="Q97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>1004067503</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1089863</v>
+      </c>
+      <c r="C98" s="2">
+        <v>104325650</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2016</v>
+      </c>
+      <c r="E98" s="2">
+        <v>11</v>
+      </c>
+      <c r="F98" s="2">
+        <v>11</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1089863</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1089863</v>
+      </c>
+      <c r="K98" s="2">
+        <v>11</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>1007367501</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1089889</v>
+      </c>
+      <c r="C99" s="2">
+        <v>104576246</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2014</v>
+      </c>
+      <c r="E99" s="2">
+        <v>108</v>
+      </c>
+      <c r="F99" s="2">
+        <v>194</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" s="2">
+        <v>1089889</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1089889</v>
+      </c>
+      <c r="K99" s="2">
+        <v>194</v>
+      </c>
+      <c r="L99" s="2">
+        <v>64</v>
+      </c>
+      <c r="M99" s="2">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+      <c r="P99" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q99" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1004067503</v>
-      </c>
-      <c r="B98">
-        <v>1089863</v>
-      </c>
-      <c r="C98">
-        <v>104325650</v>
-      </c>
-      <c r="D98">
-        <v>2016</v>
-      </c>
-      <c r="E98">
-        <v>11</v>
-      </c>
-      <c r="F98">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98">
-        <v>1089863</v>
-      </c>
-      <c r="J98">
-        <v>1089863</v>
-      </c>
-      <c r="K98">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1007367501</v>
-      </c>
-      <c r="B99">
-        <v>1089889</v>
-      </c>
-      <c r="C99">
-        <v>104576246</v>
-      </c>
-      <c r="D99">
-        <v>2014</v>
-      </c>
-      <c r="E99">
-        <v>108</v>
-      </c>
-      <c r="F99">
-        <v>194</v>
-      </c>
-      <c r="G99" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99">
-        <v>1089889</v>
-      </c>
-      <c r="J99">
-        <v>1089889</v>
-      </c>
-      <c r="K99">
-        <v>194</v>
-      </c>
-      <c r="L99">
-        <v>64</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="O99" t="s">
-        <v>46</v>
-      </c>
-      <c r="P99" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1008610004</v>
       </c>
@@ -4552,7 +4622,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1005267502</v>
       </c>
@@ -4584,7 +4654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1006957510</v>
       </c>
@@ -4620,7 +4690,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:M1"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
